--- a/outputs-HGR-r202/g__Alistipes_A.xlsx
+++ b/outputs-HGR-r202/g__Alistipes_A.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,164 +494,41 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11820.fa</t>
+          <t>even_MAG-GUT32169.fa</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9894495598551597</v>
+        <v>0.000331072012126925</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001511953154303178</v>
+        <v>0.002068854692220305</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0001403469028048966</v>
+        <v>0.997533149533628</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0001253860000567856</v>
+        <v>3.009223212108914e-07</v>
       </c>
       <c r="F2" t="n">
-        <v>9.957746049816389e-05</v>
+        <v>1.158005609199849e-05</v>
       </c>
       <c r="G2" t="n">
-        <v>4.537331609979484e-10</v>
+        <v>8.040606525214475e-07</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01003393401231699</v>
+        <v>5.423872295936666e-05</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9894495598551597</v>
+        <v>0.997533149533628</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>s__Alistipes_A ihumii</t>
+          <t>s__Alistipes_A sp900240235</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>s__Alistipes_A ihumii</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT11972.fa</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9705842394797123</v>
-      </c>
-      <c r="C3" t="n">
-        <v>9.881833604417718e-06</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.175892718683869e-05</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.00198889159946986</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.084975848869216e-05</v>
-      </c>
-      <c r="G3" t="n">
-        <v>6.757810116509918e-14</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.02738437840147043</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.9705842394797123</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>s__Alistipes_A ihumii</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>s__Alistipes_A ihumii</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT32169.fa</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.000331072012126925</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.002068854692220305</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.997533149533628</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3.009223212108914e-07</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.158005609199849e-05</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8.040606525214475e-07</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5.423872295936666e-05</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.997533149533628</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
           <t>s__Alistipes_A sp900240235</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>s__Alistipes_A sp900240235</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT36814.fa</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9755411181954809</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.001058050765104889</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.006167102789366614</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.001315946899700204</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.0005239396977012739</v>
-      </c>
-      <c r="G5" t="n">
-        <v>4.347835139742231e-10</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.0153938412178626</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.9755411181954809</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>s__Alistipes_A ihumii</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>s__Alistipes_A ihumii</t>
         </is>
       </c>
     </row>

--- a/outputs-HGR-r202/g__Alistipes_A.xlsx
+++ b/outputs-HGR-r202/g__Alistipes_A.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -521,6 +526,11 @@
           <t>s__Alistipes_A ihumii</t>
         </is>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>s__Alistipes_A ihumii</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -557,6 +567,11 @@
           <t>s__Alistipes_A ihumii</t>
         </is>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>s__Alistipes_A ihumii</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -593,6 +608,11 @@
           <t>s__Alistipes_A sp900240235</t>
         </is>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>s__Alistipes_A sp900240235</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -629,6 +649,11 @@
           <t>s__Alistipes_A ihumii</t>
         </is>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>s__Alistipes_A ihumii</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -663,6 +688,11 @@
       <c r="J6" t="inlineStr">
         <is>
           <t>s__Alistipes_A sp900240235</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>s__Alistipes_A sp900240235(reject)</t>
         </is>
       </c>
     </row>

--- a/outputs-HGR-r202/g__Alistipes_A.xlsx
+++ b/outputs-HGR-r202/g__Alistipes_A.xlsx
@@ -692,7 +692,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>s__Alistipes_A sp900240235</t>
+          <t>s__Alistipes_A sp900240235(reject)</t>
         </is>
       </c>
     </row>
